--- a/excercises/excercises/110.self_flow_well_with_ESP.xlsx
+++ b/excercises/excercises/110.self_flow_well_with_ESP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243B31C-BFE1-4A6C-BD7C-BE40C61ABFCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F683B4A-4B56-47E9-9D9B-0FABD7B81125}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">well!$C$14</definedName>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>атм</t>
   </si>
@@ -172,9 +171,6 @@
   </si>
   <si>
     <t>версия</t>
-  </si>
-  <si>
-    <t>Расчет распределения давления в скважине</t>
   </si>
   <si>
     <r>
@@ -645,9 +641,6 @@
     <t>ЭЦН ID</t>
   </si>
   <si>
-    <t>PVT строка</t>
-  </si>
-  <si>
     <t>ЭЦН имя</t>
   </si>
   <si>
@@ -784,6 +777,15 @@
   </si>
   <si>
     <t>Доля газа в затрубе</t>
+  </si>
+  <si>
+    <t>Расчет распределения давления в скважине с ЭЦН, в которой происходит фонтанирование через затрубное пространство</t>
+  </si>
+  <si>
+    <t>PVT строка в насос и НКТ</t>
+  </si>
+  <si>
+    <t>PVT строка в затрубное пространство</t>
   </si>
 </sst>
 </file>
@@ -1161,15 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1186,6 +1179,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4184,13 +4186,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>239361</xdr:colOff>
+      <xdr:colOff>31543</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>2472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -4412,16 +4414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>519547</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>365015</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>10657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>119895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4476,314 +4478,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="well"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>Доля газа до приема</v>
-          </cell>
-          <cell r="J68" t="str">
-            <v>Доля газа в затрубе</v>
-          </cell>
-          <cell r="K68" t="str">
-            <v>Доля газа в НКТ</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>0</v>
-          </cell>
-          <cell r="J69">
-            <v>0.92025698382793664</v>
-          </cell>
-          <cell r="K69">
-            <v>0.66360448235843961</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>75.52</v>
-          </cell>
-          <cell r="J70">
-            <v>0.91884491357291942</v>
-          </cell>
-          <cell r="K70">
-            <v>0.62869185732360988</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>151.04</v>
-          </cell>
-          <cell r="J71">
-            <v>0.91744693813466394</v>
-          </cell>
-          <cell r="K71">
-            <v>0.59265137412116031</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>226.56</v>
-          </cell>
-          <cell r="J72">
-            <v>0.91606032743929722</v>
-          </cell>
-          <cell r="K72">
-            <v>0.55568004995054776</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>302.08</v>
-          </cell>
-          <cell r="J73">
-            <v>0.91468344023522496</v>
-          </cell>
-          <cell r="K73">
-            <v>0.51796543467643774</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>377.59999999999997</v>
-          </cell>
-          <cell r="J74">
-            <v>0.91331526941323438</v>
-          </cell>
-          <cell r="K74">
-            <v>0.4796914477728404</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>453.11999999999995</v>
-          </cell>
-          <cell r="J75">
-            <v>0.91195520222387061</v>
-          </cell>
-          <cell r="K75">
-            <v>0.44103389439628937</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>528.64</v>
-          </cell>
-          <cell r="J76">
-            <v>0.91060288454614557</v>
-          </cell>
-          <cell r="K76">
-            <v>0.40216553211813499</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>604.16</v>
-          </cell>
-          <cell r="J77">
-            <v>0.90925813952601675</v>
-          </cell>
-          <cell r="K77">
-            <v>0.36332694882016831</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>679.68</v>
-          </cell>
-          <cell r="J78">
-            <v>0.90792091640265671</v>
-          </cell>
-          <cell r="K78">
-            <v>0.3245205377216569</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>755.19999999999993</v>
-          </cell>
-          <cell r="J79">
-            <v>0.90659125694593035</v>
-          </cell>
-          <cell r="K79">
-            <v>0.28588299961079289</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>830.71999999999991</v>
-          </cell>
-          <cell r="J80">
-            <v>0.90526927260050172</v>
-          </cell>
-          <cell r="K80">
-            <v>0.24752365056246833</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>906.2399999999999</v>
-          </cell>
-          <cell r="J81">
-            <v>0.90395512837243808</v>
-          </cell>
-          <cell r="K81">
-            <v>0.20951400120139477</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>981.75999999999988</v>
-          </cell>
-          <cell r="J82">
-            <v>0.90264903109569627</v>
-          </cell>
-          <cell r="K82">
-            <v>0.17190351835081</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>1057.28</v>
-          </cell>
-          <cell r="J83">
-            <v>0.90135122062533712</v>
-          </cell>
-          <cell r="K83">
-            <v>0.13471950129341978</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>1132.8</v>
-          </cell>
-          <cell r="J84">
-            <v>0.90006196303943553</v>
-          </cell>
-          <cell r="K84">
-            <v>9.7966597132497127E-2</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>1208.32</v>
-          </cell>
-          <cell r="J85">
-            <v>0.89878154525620513</v>
-          </cell>
-          <cell r="K85">
-            <v>6.1628052905699011E-2</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>1283.8399999999999</v>
-          </cell>
-          <cell r="J86">
-            <v>0.89751027067485212</v>
-          </cell>
-          <cell r="K86">
-            <v>2.5668338581793401E-2</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>1359.36</v>
-          </cell>
-          <cell r="J87">
-            <v>0.89624845557719091</v>
-          </cell>
-          <cell r="K87">
-            <v>5.0270975728126287E-17</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>1434.8799999999999</v>
-          </cell>
-          <cell r="J88">
-            <v>0.89499642611035579</v>
-          </cell>
-          <cell r="K88">
-            <v>4.855895696177503E-17</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>1510.3999999999999</v>
-          </cell>
-          <cell r="J89">
-            <v>0.89375451572578923</v>
-          </cell>
-          <cell r="K89">
-            <v>4.7046554341241874E-17</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>1585.9199999999998</v>
-          </cell>
-          <cell r="J90">
-            <v>0.89252306298626227</v>
-          </cell>
-          <cell r="K90">
-            <v>4.5707827475536373E-17</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>1661.4399999999998</v>
-          </cell>
-          <cell r="J91">
-            <v>0.89130240967733565</v>
-          </cell>
-          <cell r="K91">
-            <v>4.4520812631544395E-17</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>1736.9599999999998</v>
-          </cell>
-          <cell r="I92">
-            <v>0.30390449947121168</v>
-          </cell>
-          <cell r="J92">
-            <v>0.89009289917642875</v>
-          </cell>
-          <cell r="K92">
-            <v>4.3466825126535679E-17</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>1812.4799999999998</v>
-          </cell>
-          <cell r="I93">
-            <v>0.2693279566868983</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>1887.9999999999998</v>
-          </cell>
-          <cell r="I94">
-            <v>0.23532090650797313</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5091,8 +4785,8 @@
   </sheetPr>
   <dimension ref="A1:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5122,7 +4816,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5132,7 +4826,7 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
@@ -5143,12 +4837,12 @@
         <v>870</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -5159,12 +4853,12 @@
         <v>1000</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
@@ -5175,66 +4869,66 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="15">
         <f>Rsb_/gamma_oil_</f>
         <v>229.88505747126436</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>200</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15">
         <f>Rsb_/gamma_oil_</f>
         <v>229.88505747126436</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>130</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="15">
         <f>Pb_*1.01325</f>
         <v>131.7225</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
@@ -5247,29 +4941,29 @@
         <v>212</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5285,7 +4979,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>2000</v>
@@ -5296,7 +4990,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -5307,7 +5001,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>1500</v>
@@ -5318,7 +5012,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2">
         <v>125</v>
@@ -5329,7 +5023,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>73</v>
@@ -5340,18 +5034,18 @@
     </row>
     <row r="23" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
         <v>90</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12">
         <f>Dtub_out_-10</f>
@@ -5363,7 +5057,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
@@ -5374,7 +5068,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -5385,7 +5079,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="12">
         <f>PKsep</f>
@@ -5397,7 +5091,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="12">
         <f>TKsep</f>
@@ -5409,7 +5103,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
         <v>150</v>
@@ -5420,7 +5114,7 @@
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2">
         <v>100</v>
@@ -5431,7 +5125,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2">
         <v>75</v>
@@ -5442,7 +5136,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="12">
         <f>Q_total_*k_split_liquid</f>
@@ -5454,7 +5148,7 @@
     </row>
     <row r="33" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -5465,7 +5159,7 @@
     </row>
     <row r="34" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="12">
         <f>Q_total_*(1-k_split_liquid)</f>
@@ -5477,9 +5171,9 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="52">
+        <v>76</v>
+      </c>
+      <c r="C35" s="49">
         <f>Dcas_-Dtub_out_</f>
         <v>52</v>
       </c>
@@ -5495,7 +5189,7 @@
     </row>
     <row r="38" spans="1:28" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
@@ -5506,7 +5200,7 @@
     </row>
     <row r="39" spans="1:28" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2">
         <v>2000</v>
@@ -5517,7 +5211,7 @@
     </row>
     <row r="40" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2">
         <v>50</v>
@@ -5528,76 +5222,76 @@
     </row>
     <row r="41" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="12">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
         <v>737</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="G41" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
+      <c r="G41" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
     </row>
     <row r="42" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="12" t="str">
         <f>[1]!ESP_name(C41)</f>
         <v>ВНН5-125</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="G42" s="46" t="str">
+      <c r="G42" s="54" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:36,800;tksep_C:85,000;</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="12">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
@@ -5616,68 +5310,68 @@
       <c r="D44" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
+      <c r="G44" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="5">
         <v>0.9</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="G45" s="46" t="str">
+      <c r="G45" s="54" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="8">
         <v>36.799999999999997</v>
@@ -5688,7 +5382,7 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="20">
         <f>D81</f>
@@ -5697,57 +5391,57 @@
       <c r="D47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
+      <c r="G47" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G48" s="46" t="str">
+      <c r="G48" s="54" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -5756,7 +5450,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2">
         <v>250</v>
@@ -5767,7 +5461,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="20">
         <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
@@ -5779,7 +5473,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -5818,18 +5512,18 @@
       <c r="C63" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="51">
         <v>0.5</v>
       </c>
-      <c r="G63" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="G63" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
       <c r="N63" s="42">
         <v>0.6</v>
       </c>
@@ -5853,31 +5547,31 @@
         <v>20</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J65" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L65" s="24" t="s">
         <v>24</v>
       </c>
       <c r="M65" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N65" s="30" t="s">
         <v>23</v>
       </c>
       <c r="O65" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R65" s="40"/>
     </row>
@@ -5893,11 +5587,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C66,F67,PVT_str_,theta_,Dtub_,,D67,D66)</f>
         <v>0</v>
       </c>
-      <c r="J66" s="47">
+      <c r="J66" s="44">
         <f>[1]!MF_gas_fraction_d(Q66,D66,fw_,PVT_str_annular_)</f>
         <v>0.95007288308331428</v>
       </c>
-      <c r="K66" s="48">
+      <c r="K66" s="45">
         <f>[1]!MF_gas_fraction_d(M66,D66,fw_,PVT_str_)</f>
         <v>0.79478569105361241</v>
       </c>
@@ -5928,11 +5622,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C67,F68,PVT_str_,theta_,Dtub_,,D68,D67)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="47">
+      <c r="J67" s="44">
         <f>[1]!MF_gas_fraction_d(Q67,D67,fw_,PVT_str_annular_)</f>
         <v>0.94409700690523557</v>
       </c>
-      <c r="K67" s="48">
+      <c r="K67" s="45">
         <f>[1]!MF_gas_fraction_d(M67,D67,fw_,PVT_str_)</f>
         <v>0.72707657195405351</v>
       </c>
@@ -5963,11 +5657,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="44">
         <f>[1]!MF_gas_fraction_d(Q68,D68,fw_,PVT_str_annular_)</f>
         <v>0.93802852813778714</v>
       </c>
-      <c r="K68" s="48">
+      <c r="K68" s="45">
         <f>[1]!MF_gas_fraction_d(M68,D68,fw_,PVT_str_)</f>
         <v>0.64080174816971625</v>
       </c>
@@ -5998,11 +5692,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
         <v>0</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="44">
         <f>[1]!MF_gas_fraction_d(Q69,D69,fw_,PVT_str_annular_)</f>
         <v>0.93182377183245269</v>
       </c>
-      <c r="K69" s="48">
+      <c r="K69" s="45">
         <f>[1]!MF_gas_fraction_d(M69,D69,fw_,PVT_str_)</f>
         <v>0.53775843448781369</v>
       </c>
@@ -6033,11 +5727,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
         <v>0</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="44">
         <f>[1]!MF_gas_fraction_d(Q70,D70,fw_,PVT_str_annular_)</f>
         <v>0.92544843767346419</v>
       </c>
-      <c r="K70" s="48">
+      <c r="K70" s="45">
         <f>[1]!MF_gas_fraction_d(M70,D70,fw_,PVT_str_)</f>
         <v>0.41666051728643644</v>
       </c>
@@ -6068,11 +5762,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="44">
         <f>[1]!MF_gas_fraction_d(Q71,D71,fw_,PVT_str_annular_)</f>
         <v>0.91887454027015225</v>
       </c>
-      <c r="K71" s="48">
+      <c r="K71" s="45">
         <f>[1]!MF_gas_fraction_d(M71,D71,fw_,PVT_str_)</f>
         <v>0.27607337015067063</v>
       </c>
@@ -6103,11 +5797,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
         <v>1.8054323369897451</v>
       </c>
-      <c r="J72" s="47">
+      <c r="J72" s="44">
         <f>[1]!MF_gas_fraction_d(Q72,D72,fw_,PVT_str_annular_)</f>
         <v>0.91207858221474014</v>
       </c>
-      <c r="K72" s="48">
+      <c r="K72" s="45">
         <f>[1]!MF_gas_fraction_d(M72,D72,fw_,PVT_str_)</f>
         <v>0.11545965640525324</v>
       </c>
@@ -6138,11 +5832,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
         <v>3.6236589201632583</v>
       </c>
-      <c r="J73" s="47">
+      <c r="J73" s="44">
         <f>[1]!MF_gas_fraction_d(Q73,D73,fw_,PVT_str_annular_)</f>
         <v>0.905040420577505</v>
       </c>
-      <c r="K73" s="48">
+      <c r="K73" s="45">
         <f>[1]!MF_gas_fraction_d(M73,D73,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6173,11 +5867,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
         <v>5.9017960564522225</v>
       </c>
-      <c r="J74" s="47">
+      <c r="J74" s="44">
         <f>[1]!MF_gas_fraction_d(Q74,D74,fw_,PVT_str_annular_)</f>
         <v>0.89774254627008521</v>
       </c>
-      <c r="K74" s="48">
+      <c r="K74" s="45">
         <f>[1]!MF_gas_fraction_d(M74,D74,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6208,11 +5902,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
         <v>8.6963048249188581</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="44">
         <f>[1]!MF_gas_fraction_d(Q75,D75,fw_,PVT_str_annular_)</f>
         <v>0.89016962073485473</v>
       </c>
-      <c r="K75" s="48">
+      <c r="K75" s="45">
         <f>[1]!MF_gas_fraction_d(M75,D75,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6243,11 +5937,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
         <v>12.031451024667465</v>
       </c>
-      <c r="J76" s="47">
+      <c r="J76" s="44">
         <f>[1]!MF_gas_fraction_d(Q76,D76,fw_,PVT_str_annular_)</f>
         <v>0.88230817898953917</v>
       </c>
-      <c r="K76" s="48">
+      <c r="K76" s="45">
         <f>[1]!MF_gas_fraction_d(M76,D76,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6278,11 +5972,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
         <v>15.916867099961335</v>
       </c>
-      <c r="J77" s="47">
+      <c r="J77" s="44">
         <f>[1]!MF_gas_fraction_d(Q77,D77,fw_,PVT_str_annular_)</f>
         <v>0.87414644325679802</v>
       </c>
-      <c r="K77" s="48">
+      <c r="K77" s="45">
         <f>[1]!MF_gas_fraction_d(M77,D77,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6313,11 +6007,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
         <v>20.351788548898636</v>
       </c>
-      <c r="J78" s="47">
+      <c r="J78" s="44">
         <f>[1]!MF_gas_fraction_d(Q78,D78,fw_,PVT_str_annular_)</f>
         <v>0.86567421147385104</v>
       </c>
-      <c r="K78" s="48">
+      <c r="K78" s="45">
         <f>[1]!MF_gas_fraction_d(M78,D78,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6348,11 +6042,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
         <v>25.326038951144799</v>
       </c>
-      <c r="J79" s="47">
+      <c r="J79" s="44">
         <f>[1]!MF_gas_fraction_d(Q79,D79,fw_,PVT_str_annular_)</f>
         <v>0.85688279685414181</v>
       </c>
-      <c r="K79" s="48">
+      <c r="K79" s="45">
         <f>[1]!MF_gas_fraction_d(M79,D79,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6383,11 +6077,11 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
         <v>30.822120784843342</v>
       </c>
-      <c r="J80" s="47">
+      <c r="J80" s="44">
         <f>[1]!MF_gas_fraction_d(Q80,D80,fw_,PVT_str_annular_)</f>
         <v>0.84776500193926363</v>
       </c>
-      <c r="K80" s="48">
+      <c r="K80" s="45">
         <f>[1]!MF_gas_fraction_d(M80,D80,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6421,23 +6115,23 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
         <v>36.815457599614305</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="50">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
         <v>0.64699257829740076</v>
       </c>
-      <c r="H81" s="53">
+      <c r="H81" s="50">
         <f>[1]!MF_ksep_total_d(G81,KsepGasSep_)</f>
         <v>0.96469925782974009</v>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="44">
         <f>[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
         <v>0.3430490539657618</v>
       </c>
-      <c r="J81" s="47">
+      <c r="J81" s="44">
         <f>[1]!MF_gas_fraction_d(Q81,D81,fw_,PVT_str_annular_)</f>
         <v>0.83831511516545543</v>
       </c>
-      <c r="K81" s="48">
+      <c r="K81" s="45">
         <f>[1]!MF_gas_fraction_d(M81,D81,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
@@ -6478,13 +6172,13 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
         <v>43.273705416457595</v>
       </c>
-      <c r="I82" s="47">
+      <c r="I82" s="44">
         <f>[1]!MF_gas_fraction_d(F82,D82,fw_,PVT_str_)</f>
         <v>0.22679829979647245</v>
       </c>
-      <c r="J82" s="49"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="51"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="48"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6501,13 +6195,13 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
         <v>50.318015471521939</v>
       </c>
-      <c r="I83" s="47">
+      <c r="I83" s="44">
         <f>[1]!MF_gas_fraction_d(F83,D83,fw_,PVT_str_)</f>
         <v>9.8413249784674986E-2</v>
       </c>
-      <c r="J83" s="49"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="51"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="6"/>
     </row>
     <row r="84" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6524,13 +6218,13 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
         <v>58.367707375039274</v>
       </c>
-      <c r="I84" s="47">
+      <c r="I84" s="44">
         <f>[1]!MF_gas_fraction_d(F84,D84,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="J84" s="49"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="51"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="48"/>
       <c r="M84" s="6"/>
     </row>
     <row r="85" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6547,13 +6241,13 @@
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
         <v>66.676991588901558</v>
       </c>
-      <c r="I85" s="47">
+      <c r="I85" s="44">
         <f>[1]!MF_gas_fraction_d(F85,D85,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="J85" s="49"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="51"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="48"/>
       <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6570,43 +6264,43 @@
         <f>Pwf_</f>
         <v>75</v>
       </c>
-      <c r="I86" s="47">
+      <c r="I86" s="44">
         <f>[1]!MF_gas_fraction_d(F86,D86,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="49"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="51"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="48"/>
       <c r="M86" s="6"/>
     </row>
     <row r="87" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="50"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="47"/>
       <c r="L87" s="33"/>
     </row>
     <row r="88" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="50"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="47"/>
       <c r="L88" s="33"/>
     </row>
     <row r="89" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="50"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="47"/>
       <c r="L89" s="33"/>
     </row>
     <row r="90" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="I90" s="49"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="33"/>
-      <c r="K90" s="50"/>
+      <c r="K90" s="47"/>
       <c r="L90" s="33"/>
     </row>
     <row r="91" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="I91" s="49"/>
+      <c r="I91" s="46"/>
       <c r="J91" s="33"/>
-      <c r="K91" s="50"/>
+      <c r="K91" s="47"/>
       <c r="L91" s="33"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">

--- a/excercises/excercises/110.self_flow_well_with_ESP.xlsx
+++ b/excercises/excercises/110.self_flow_well_with_ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F683B4A-4B56-47E9-9D9B-0FABD7B81125}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5F44D-EBD3-4606-9CFF-1493BBB05BBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="2190" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="107" r:id="rId1"/>
@@ -74,6 +74,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4785,8 +4786,8 @@
   </sheetPr>
   <dimension ref="A1:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:AB47"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4811,7 +4812,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5265,7 +5266,7 @@
       <c r="D42" s="17"/>
       <c r="G42" s="54" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:36,800;tksep_C:85,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:200.000;rp_m3m3:200.000;pb_atma:130.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:36.800;tksep_C:85.000;</v>
       </c>
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
@@ -5345,7 +5346,7 @@
       <c r="D45" s="17"/>
       <c r="G45" s="54" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tintake_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="H45" s="54"/>
       <c r="I45" s="54"/>
@@ -5419,7 +5420,7 @@
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G48" s="54" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:200,000;rp_m3m3:200,000;pb_atma:130,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:200.000;rp_m3m3:200.000;pb_atma:130.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
